--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_33.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2662386.789156745</v>
+        <v>2656609.251156019</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2250409.381847138</v>
+        <v>2310564.143223174</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791243</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7888263.692333505</v>
+        <v>7887083.733552666</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>206.3670033956539</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>121.0606803599453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>149.1476881355087</v>
@@ -750,7 +750,7 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>21.2405902383423</v>
+        <v>74.86702424530104</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>55.24675346159208</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>117.6675015431139</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>83.84708725778827</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>326.0165323664816</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>33.54550680794112</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>98.54676348900232</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1035,7 +1035,7 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>214.0175430895179</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
@@ -1145,13 +1145,13 @@
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>93.86158641218542</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>21.44686723185159</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1291,16 +1291,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>13.22962011024177</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>76.74086563202125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603044</v>
+        <v>74.07584602384514</v>
       </c>
       <c r="F11" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
-        <v>315.0398534825604</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>70.85714503404348</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T11" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>159.2039277954309</v>
       </c>
       <c r="V11" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W11" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X11" t="n">
-        <v>192.8357527395522</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y11" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C13" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D13" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E13" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507272</v>
       </c>
       <c r="F13" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G13" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H13" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.67070499943208</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S13" t="n">
         <v>106.7966485049597</v>
@@ -1585,13 +1585,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V13" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W13" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X13" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y13" t="n">
         <v>126.8896660972066</v>
@@ -1610,10 +1610,10 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D14" t="n">
-        <v>287.5954430211825</v>
+        <v>273.4823810173255</v>
       </c>
       <c r="E14" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1622,10 +1622,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>96.25178277104398</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414336</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>70.85714503404348</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
         <v>159.2039277954309</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
         <v>273.2977702070789</v>
@@ -1895,7 +1895,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059288</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2096,10 +2096,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
         <v>103.0018919978638</v>
@@ -2299,13 +2299,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F25" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>286.9034269003581</v>
+        <v>280.4599644277186</v>
       </c>
       <c r="C32" t="n">
-        <v>279.6573751281738</v>
+        <v>273.2139126555344</v>
       </c>
       <c r="D32" t="n">
-        <v>272.0003461415741</v>
+        <v>265.5568836689346</v>
       </c>
       <c r="E32" t="n">
-        <v>288.9713182806961</v>
+        <v>282.5278558080566</v>
       </c>
       <c r="F32" t="n">
-        <v>303.1391227313972</v>
+        <v>296.6956602587577</v>
       </c>
       <c r="G32" t="n">
-        <v>299.444756602952</v>
+        <v>293.0012941303125</v>
       </c>
       <c r="H32" t="n">
-        <v>211.2558485752494</v>
+        <v>204.8123861026099</v>
       </c>
       <c r="I32" t="n">
-        <v>27.367374384535</v>
+        <v>20.92391191189552</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>55.26204815443512</v>
+        <v>48.81858568179564</v>
       </c>
       <c r="T32" t="n">
-        <v>111.6792250622527</v>
+        <v>105.2357625896132</v>
       </c>
       <c r="U32" t="n">
-        <v>143.6088309158226</v>
+        <v>137.1653684431831</v>
       </c>
       <c r="V32" t="n">
-        <v>229.099369849592</v>
+        <v>222.6559073769525</v>
       </c>
       <c r="W32" t="n">
-        <v>257.7026733274706</v>
+        <v>251.2592108548311</v>
       </c>
       <c r="X32" t="n">
-        <v>275.9717076623489</v>
+        <v>269.5282451897094</v>
       </c>
       <c r="Y32" t="n">
-        <v>282.9394306346801</v>
+        <v>276.4959681620406</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.76956715046344</v>
+        <v>67.32610467782396</v>
       </c>
       <c r="C34" t="n">
-        <v>58.91669540074585</v>
+        <v>52.47323292810637</v>
       </c>
       <c r="D34" t="n">
-        <v>44.49041061258558</v>
+        <v>38.0469481399461</v>
       </c>
       <c r="E34" t="n">
-        <v>44.41685266546469</v>
+        <v>37.97339019282521</v>
       </c>
       <c r="F34" t="n">
-        <v>46.16630408523196</v>
+        <v>39.72284161259248</v>
       </c>
       <c r="G34" t="n">
-        <v>56.98514200762409</v>
+        <v>50.54167953498461</v>
       </c>
       <c r="H34" t="n">
-        <v>44.33739417419613</v>
+        <v>37.89393170155665</v>
       </c>
       <c r="I34" t="n">
-        <v>22.17710975536806</v>
+        <v>15.73364728272858</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>13.07560811982398</v>
+        <v>6.632145647184501</v>
       </c>
       <c r="S34" t="n">
-        <v>91.2015516253513</v>
+        <v>84.75808915271182</v>
       </c>
       <c r="T34" t="n">
-        <v>123.7754899595234</v>
+        <v>117.3320274868839</v>
       </c>
       <c r="U34" t="n">
-        <v>172.9980324865932</v>
+        <v>166.5545700139538</v>
       </c>
       <c r="V34" t="n">
-        <v>153.7331803734592</v>
+        <v>147.2897179008197</v>
       </c>
       <c r="W34" t="n">
-        <v>170.9107266942093</v>
+        <v>164.4672642215698</v>
       </c>
       <c r="X34" t="n">
-        <v>122.1531476409219</v>
+        <v>115.7096851682824</v>
       </c>
       <c r="Y34" t="n">
-        <v>111.2945692175983</v>
+        <v>104.8511067449588</v>
       </c>
     </row>
     <row r="35">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3737,19 +3737,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C41" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D41" t="n">
-        <v>285.1198780252671</v>
+        <v>1.098310803921777</v>
       </c>
       <c r="E41" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F41" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G41" t="n">
         <v>312.564288486645</v>
@@ -3758,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>40.48690626822793</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>68.38158003812805</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U41" t="n">
         <v>156.7283627995155</v>
       </c>
       <c r="V41" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W41" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X41" t="n">
-        <v>238.7369155769978</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y41" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>86.88909903415644</v>
+        <v>86.88909903415637</v>
       </c>
       <c r="C43" t="n">
-        <v>72.03622728443885</v>
+        <v>72.03622728443878</v>
       </c>
       <c r="D43" t="n">
-        <v>57.60994249627858</v>
+        <v>57.60994249627851</v>
       </c>
       <c r="E43" t="n">
-        <v>57.53638454915769</v>
+        <v>57.53638454915762</v>
       </c>
       <c r="F43" t="n">
-        <v>59.28583596892496</v>
+        <v>59.28583596892489</v>
       </c>
       <c r="G43" t="n">
-        <v>70.10467389131709</v>
+        <v>70.10467389131702</v>
       </c>
       <c r="H43" t="n">
-        <v>57.45692605788913</v>
+        <v>57.45692605788906</v>
       </c>
       <c r="I43" t="n">
-        <v>35.29664163906106</v>
+        <v>35.29664163906099</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>26.19514000351698</v>
+        <v>26.19514000351691</v>
       </c>
       <c r="S43" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T43" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U43" t="n">
         <v>186.1175643702862</v>
       </c>
       <c r="V43" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W43" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X43" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
     <row r="44">
@@ -3974,19 +3974,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0229587840511</v>
+        <v>300.022958784051</v>
       </c>
       <c r="C44" t="n">
-        <v>292.7769070118669</v>
+        <v>292.7769070118668</v>
       </c>
       <c r="D44" t="n">
-        <v>285.1198780252671</v>
+        <v>41.58521707214967</v>
       </c>
       <c r="E44" t="n">
-        <v>302.0908501643891</v>
+        <v>302.090850164389</v>
       </c>
       <c r="F44" t="n">
-        <v>316.2586546150902</v>
+        <v>316.2586546150901</v>
       </c>
       <c r="G44" t="n">
         <v>312.564288486645</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>37.99245879234225</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>68.38158003812812</v>
+        <v>68.38158003812805</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>124.7987569459456</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>156.7283627995155</v>
       </c>
       <c r="V44" t="n">
-        <v>242.218901733285</v>
+        <v>242.2189017332849</v>
       </c>
       <c r="W44" t="n">
-        <v>270.8222052111636</v>
+        <v>270.8222052111635</v>
       </c>
       <c r="X44" t="n">
-        <v>289.0912395460419</v>
+        <v>289.0912395460418</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.0589625183731</v>
+        <v>296.058962518373</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.88909903415644</v>
+        <v>86.88909903415637</v>
       </c>
       <c r="C46" t="n">
-        <v>72.03622728443885</v>
+        <v>72.03622728443878</v>
       </c>
       <c r="D46" t="n">
-        <v>57.60994249627858</v>
+        <v>57.60994249627851</v>
       </c>
       <c r="E46" t="n">
-        <v>57.53638454915769</v>
+        <v>57.53638454915762</v>
       </c>
       <c r="F46" t="n">
-        <v>59.28583596892496</v>
+        <v>59.28583596892489</v>
       </c>
       <c r="G46" t="n">
-        <v>70.10467389131709</v>
+        <v>70.10467389131702</v>
       </c>
       <c r="H46" t="n">
-        <v>57.45692605788913</v>
+        <v>57.45692605788906</v>
       </c>
       <c r="I46" t="n">
-        <v>35.29664163906106</v>
+        <v>35.29664163906099</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>26.19514000351698</v>
+        <v>26.19514000351691</v>
       </c>
       <c r="S46" t="n">
-        <v>104.3210835090443</v>
+        <v>104.3210835090442</v>
       </c>
       <c r="T46" t="n">
-        <v>136.8950218432164</v>
+        <v>136.8950218432163</v>
       </c>
       <c r="U46" t="n">
         <v>186.1175643702862</v>
       </c>
       <c r="V46" t="n">
-        <v>166.8527122571522</v>
+        <v>166.8527122571521</v>
       </c>
       <c r="W46" t="n">
         <v>184.0302585779023</v>
       </c>
       <c r="X46" t="n">
-        <v>135.2726795246149</v>
+        <v>135.2726795246148</v>
       </c>
       <c r="Y46" t="n">
-        <v>124.4141011012913</v>
+        <v>124.4141011012912</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>605.3877662292405</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="C2" t="n">
-        <v>605.3877662292405</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="D2" t="n">
-        <v>605.3877662292405</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="E2" t="n">
-        <v>202.804241345785</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="F2" t="n">
-        <v>189.9502069161668</v>
+        <v>777.7441318441283</v>
       </c>
       <c r="G2" t="n">
-        <v>180.827855444574</v>
+        <v>364.5813763321315</v>
       </c>
       <c r="H2" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="I2" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="J2" t="n">
-        <v>42.49073853703886</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K2" t="n">
-        <v>42.49073853703886</v>
+        <v>242.2021271932803</v>
       </c>
       <c r="L2" t="n">
-        <v>535.8110302555677</v>
+        <v>735.5224189118092</v>
       </c>
       <c r="M2" t="n">
-        <v>810.4869444322368</v>
+        <v>1236.689201907259</v>
       </c>
       <c r="N2" t="n">
-        <v>1336.309833828093</v>
+        <v>1236.689201907259</v>
       </c>
       <c r="O2" t="n">
-        <v>1776.349434720421</v>
+        <v>1676.728802799587</v>
       </c>
       <c r="P2" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931109</v>
       </c>
       <c r="Q2" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931109</v>
       </c>
       <c r="R2" t="n">
-        <v>2086.544013137465</v>
+        <v>1986.923381216631</v>
       </c>
       <c r="S2" t="n">
-        <v>1920.030458078515</v>
+        <v>1820.409826157681</v>
       </c>
       <c r="T2" t="n">
-        <v>1696.529855637932</v>
+        <v>1596.909223717098</v>
       </c>
       <c r="U2" t="n">
-        <v>1440.777126072531</v>
+        <v>1341.156494151697</v>
       </c>
       <c r="V2" t="n">
-        <v>1098.670316776049</v>
+        <v>999.0496848552151</v>
       </c>
       <c r="W2" t="n">
-        <v>727.6712817443367</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="X2" t="n">
-        <v>727.6712817443367</v>
+        <v>790.5981662737465</v>
       </c>
       <c r="Y2" t="n">
-        <v>605.3877662292405</v>
+        <v>790.5981662737465</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>605.567375016338</v>
+        <v>657.7430775364655</v>
       </c>
       <c r="C3" t="n">
-        <v>454.9131445764302</v>
+        <v>507.0888470965577</v>
       </c>
       <c r="D3" t="n">
-        <v>324.8241771979106</v>
+        <v>376.9998797180381</v>
       </c>
       <c r="E3" t="n">
-        <v>188.3776863087983</v>
+        <v>240.5533888289258</v>
       </c>
       <c r="F3" t="n">
-        <v>63.94588019193007</v>
+        <v>116.1215827120576</v>
       </c>
       <c r="G3" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="H3" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="I3" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="J3" t="n">
-        <v>155.6057207567662</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K3" t="n">
-        <v>475.3448668189927</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="L3" t="n">
-        <v>958.9109527173059</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="M3" t="n">
-        <v>958.9109527173059</v>
+        <v>637.1793940166629</v>
       </c>
       <c r="N3" t="n">
-        <v>1373.651552706071</v>
+        <v>1138.346177012112</v>
       </c>
       <c r="O3" t="n">
-        <v>1890.171835297052</v>
+        <v>1384.929834659821</v>
       </c>
       <c r="P3" t="n">
-        <v>1890.171835297052</v>
+        <v>1790.551203376218</v>
       </c>
       <c r="Q3" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931109</v>
       </c>
       <c r="R3" t="n">
-        <v>2100.619883750007</v>
+        <v>2000.999251829174</v>
       </c>
       <c r="S3" t="n">
-        <v>1965.689206649876</v>
+        <v>1866.068574729042</v>
       </c>
       <c r="T3" t="n">
-        <v>1788.705394848785</v>
+        <v>1689.084762927951</v>
       </c>
       <c r="U3" t="n">
-        <v>1578.642251527426</v>
+        <v>1479.021619606593</v>
       </c>
       <c r="V3" t="n">
-        <v>1356.102249898493</v>
+        <v>1256.48161797766</v>
       </c>
       <c r="W3" t="n">
-        <v>1125.98500403178</v>
+        <v>1026.364372110947</v>
       </c>
       <c r="X3" t="n">
-        <v>936.6779263817921</v>
+        <v>837.0572944609582</v>
       </c>
       <c r="Y3" t="n">
-        <v>757.3637094572994</v>
+        <v>657.7430775364655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>943.9377610785913</v>
+        <v>241.081714006531</v>
       </c>
       <c r="C4" t="n">
-        <v>773.7326431445805</v>
+        <v>70.87659607252023</v>
       </c>
       <c r="D4" t="n">
-        <v>654.876580979819</v>
+        <v>70.87659607252023</v>
       </c>
       <c r="E4" t="n">
-        <v>499.3177688390215</v>
+        <v>70.87659607252023</v>
       </c>
       <c r="F4" t="n">
-        <v>499.3177688390215</v>
+        <v>70.87659607252023</v>
       </c>
       <c r="G4" t="n">
-        <v>331.063714938467</v>
+        <v>70.87659607252023</v>
       </c>
       <c r="H4" t="n">
-        <v>175.585163899961</v>
+        <v>70.87659607252023</v>
       </c>
       <c r="I4" t="n">
-        <v>42.49073853703886</v>
+        <v>70.87659607252023</v>
       </c>
       <c r="J4" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="K4" t="n">
-        <v>124.3257796469807</v>
+        <v>122.333367008564</v>
       </c>
       <c r="L4" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823638</v>
       </c>
       <c r="M4" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206278</v>
       </c>
       <c r="N4" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O4" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P4" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q4" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="S4" t="n">
-        <v>943.9377610785913</v>
+        <v>818.0443590727516</v>
       </c>
       <c r="T4" t="n">
-        <v>943.9377610785913</v>
+        <v>582.3253072409857</v>
       </c>
       <c r="U4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="V4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="W4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="X4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
       <c r="Y4" t="n">
-        <v>943.9377610785913</v>
+        <v>296.8865154828866</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1334.968099860102</v>
+        <v>551.2091433733567</v>
       </c>
       <c r="C5" t="n">
-        <v>1334.968099860102</v>
+        <v>551.2091433733567</v>
       </c>
       <c r="D5" t="n">
-        <v>1334.968099860102</v>
+        <v>551.2091433733567</v>
       </c>
       <c r="E5" t="n">
-        <v>1334.968099860102</v>
+        <v>551.2091433733567</v>
       </c>
       <c r="F5" t="n">
-        <v>918.0736613900802</v>
+        <v>538.3551089437385</v>
       </c>
       <c r="G5" t="n">
-        <v>504.9109058780834</v>
+        <v>125.1923534317417</v>
       </c>
       <c r="H5" t="n">
-        <v>180.827855444574</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="I5" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="J5" t="n">
-        <v>187.140511445867</v>
+        <v>185.1480988074503</v>
       </c>
       <c r="K5" t="n">
-        <v>187.140511445867</v>
+        <v>544.1304548349121</v>
       </c>
       <c r="L5" t="n">
-        <v>187.140511445867</v>
+        <v>990.7164596631892</v>
       </c>
       <c r="M5" t="n">
-        <v>712.9634008417229</v>
+        <v>1491.883242658639</v>
       </c>
       <c r="N5" t="n">
-        <v>1151.464273687144</v>
+        <v>1491.883242658639</v>
       </c>
       <c r="O5" t="n">
-        <v>1591.503874579473</v>
+        <v>1491.883242658639</v>
       </c>
       <c r="P5" t="n">
-        <v>1939.691366710995</v>
+        <v>1840.07073479016</v>
       </c>
       <c r="Q5" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931109</v>
       </c>
       <c r="R5" t="n">
-        <v>2086.544013137465</v>
+        <v>1986.923381216631</v>
       </c>
       <c r="S5" t="n">
-        <v>1920.030458078515</v>
+        <v>1820.409826157681</v>
       </c>
       <c r="T5" t="n">
-        <v>1920.030458078515</v>
+        <v>1596.909223717098</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.277728513114</v>
+        <v>1341.156494151697</v>
       </c>
       <c r="V5" t="n">
-        <v>1334.968099860102</v>
+        <v>1341.156494151697</v>
       </c>
       <c r="W5" t="n">
-        <v>1334.968099860102</v>
+        <v>1341.156494151697</v>
       </c>
       <c r="X5" t="n">
-        <v>1334.968099860102</v>
+        <v>951.7038890847535</v>
       </c>
       <c r="Y5" t="n">
-        <v>1334.968099860102</v>
+        <v>951.7038890847535</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>841.8567216770698</v>
+        <v>736.0639889622173</v>
       </c>
       <c r="C6" t="n">
-        <v>691.202491237162</v>
+        <v>585.4097585223095</v>
       </c>
       <c r="D6" t="n">
-        <v>561.1135238586423</v>
+        <v>455.3207911437898</v>
       </c>
       <c r="E6" t="n">
-        <v>424.6670329695301</v>
+        <v>318.8743002546776</v>
       </c>
       <c r="F6" t="n">
-        <v>300.2352268526619</v>
+        <v>194.4424941378094</v>
       </c>
       <c r="G6" t="n">
-        <v>180.1754089245263</v>
+        <v>74.38267620967382</v>
       </c>
       <c r="H6" t="n">
-        <v>91.87799252512727</v>
+        <v>74.38267620967382</v>
       </c>
       <c r="I6" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="J6" t="n">
-        <v>42.49073853703886</v>
+        <v>153.6133081183496</v>
       </c>
       <c r="K6" t="n">
-        <v>362.2298845992653</v>
+        <v>473.352454180576</v>
       </c>
       <c r="L6" t="n">
-        <v>362.2298845992653</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="M6" t="n">
-        <v>442.207294593818</v>
+        <v>956.9185400788892</v>
       </c>
       <c r="N6" t="n">
-        <v>968.0301839896739</v>
+        <v>1458.085323074339</v>
       </c>
       <c r="O6" t="n">
-        <v>1484.550466580655</v>
+        <v>1619.294926214711</v>
       </c>
       <c r="P6" t="n">
-        <v>1890.171835297052</v>
+        <v>2024.916294931109</v>
       </c>
       <c r="Q6" t="n">
-        <v>2124.536926851943</v>
+        <v>2024.916294931109</v>
       </c>
       <c r="R6" t="n">
-        <v>2124.536926851943</v>
+        <v>2000.999251829174</v>
       </c>
       <c r="S6" t="n">
-        <v>2124.536926851943</v>
+        <v>1866.068574729042</v>
       </c>
       <c r="T6" t="n">
-        <v>2024.994741509516</v>
+        <v>1689.084762927951</v>
       </c>
       <c r="U6" t="n">
-        <v>1814.931598188158</v>
+        <v>1479.021619606593</v>
       </c>
       <c r="V6" t="n">
-        <v>1592.391596559225</v>
+        <v>1256.48161797766</v>
       </c>
       <c r="W6" t="n">
-        <v>1362.274350692512</v>
+        <v>1256.48161797766</v>
       </c>
       <c r="X6" t="n">
-        <v>1172.967273042524</v>
+        <v>1067.174540327671</v>
       </c>
       <c r="Y6" t="n">
-        <v>993.6530561180311</v>
+        <v>887.8603234031787</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>834.741203501409</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="C7" t="n">
-        <v>834.741203501409</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="D7" t="n">
-        <v>679.1080904039238</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="E7" t="n">
-        <v>523.5492782631263</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2233434760993</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="G7" t="n">
-        <v>197.9692895755449</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="H7" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="I7" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="J7" t="n">
-        <v>42.49073853703886</v>
+        <v>40.49832589862218</v>
       </c>
       <c r="K7" t="n">
-        <v>124.3257796469807</v>
+        <v>122.333367008564</v>
       </c>
       <c r="L7" t="n">
-        <v>288.4534195207805</v>
+        <v>286.4610068823638</v>
       </c>
       <c r="M7" t="n">
-        <v>474.7449978590445</v>
+        <v>472.7525852206278</v>
       </c>
       <c r="N7" t="n">
-        <v>657.9346318902537</v>
+        <v>655.9422192518371</v>
       </c>
       <c r="O7" t="n">
-        <v>820.6393989319618</v>
+        <v>818.6469862935451</v>
       </c>
       <c r="P7" t="n">
-        <v>940.5155647085403</v>
+        <v>938.5231520701236</v>
       </c>
       <c r="Q7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="R7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="S7" t="n">
-        <v>943.9377610785913</v>
+        <v>941.9453484401746</v>
       </c>
       <c r="T7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="U7" t="n">
-        <v>943.9377610785913</v>
+        <v>725.7660119861162</v>
       </c>
       <c r="V7" t="n">
-        <v>943.9377610785913</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="W7" t="n">
-        <v>834.741203501409</v>
+        <v>459.7866668069404</v>
       </c>
       <c r="X7" t="n">
-        <v>834.741203501409</v>
+        <v>225.7063445899234</v>
       </c>
       <c r="Y7" t="n">
-        <v>834.741203501409</v>
+        <v>225.7063445899234</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>786.5479079333334</v>
+        <v>1285.397995218369</v>
       </c>
       <c r="C8" t="n">
-        <v>393.3724064362639</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="D8" t="n">
-        <v>393.3724064362639</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="E8" t="n">
-        <v>393.3724064362639</v>
+        <v>892.2224937212998</v>
       </c>
       <c r="F8" t="n">
-        <v>380.5183720066457</v>
+        <v>879.3684592916816</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>466.2057037796847</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>142.1226533461754</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>550.9450990378335</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>1044.265390756362</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1590.266290800943</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2343.985002822785</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2343.985002822785</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2343.985002822785</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2343.985002822785</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>1972.985967791072</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>1583.533362724129</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1187.04265364473</v>
+        <v>1285.397995218369</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>140.0776713099957</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>623.6437572083089</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.141762214911</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.0359480608643</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>515.8308301268535</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>360.1977170293682</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>204.6389048885707</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>732.5806561890375</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>466.6013110098618</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>232.5209887928449</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.2439667521655</v>
+        <v>232.5209887928449</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1580.711427684574</v>
+        <v>1320.171044252417</v>
       </c>
       <c r="C11" t="n">
-        <v>1282.476607474693</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D11" t="n">
-        <v>1282.476607474693</v>
+        <v>731.4357765463913</v>
       </c>
       <c r="E11" t="n">
-        <v>974.8337638784258</v>
+        <v>656.6116896536173</v>
       </c>
       <c r="F11" t="n">
-        <v>652.8800066955919</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="G11" t="n">
         <v>334.6579324707834</v>
@@ -5072,19 +5072,19 @@
         <v>2905.82359028062</v>
       </c>
       <c r="U11" t="n">
-        <v>2905.82359028062</v>
+        <v>2745.011542002408</v>
       </c>
       <c r="V11" t="n">
-        <v>2658.657462271327</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W11" t="n">
-        <v>2382.599108526803</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X11" t="n">
-        <v>2187.815519900993</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y11" t="n">
-        <v>1886.265492108782</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M12" t="n">
-        <v>1319.055322752795</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N12" t="n">
-        <v>1974.833293963354</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551001</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082779</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D13" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979807</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443718</v>
+        <v>296.5093676443719</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5197,7 +5197,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K13" t="n">
         <v>300.2831496757665</v>
@@ -5206,7 +5206,7 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M13" t="n">
-        <v>836.805091346977</v>
+        <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
         <v>1113.046087107759</v>
@@ -5236,13 +5236,13 @@
         <v>1039.052445966844</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852101</v>
+        <v>850.66272518521</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553814</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592133</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1695.897093415104</v>
+        <v>1320.171044252416</v>
       </c>
       <c r="C14" t="n">
-        <v>1397.662273205223</v>
+        <v>1021.936224042535</v>
       </c>
       <c r="D14" t="n">
-        <v>1107.161825709079</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="E14" t="n">
-        <v>799.5189821128124</v>
+        <v>745.6913947321048</v>
       </c>
       <c r="F14" t="n">
-        <v>477.5652249299785</v>
+        <v>423.7376375492709</v>
       </c>
       <c r="G14" t="n">
-        <v>159.34315070517</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="H14" t="n">
-        <v>62.11912770411553</v>
+        <v>105.5155633244624</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3034.383511434015</v>
       </c>
       <c r="T14" t="n">
-        <v>3034.383511434015</v>
+        <v>2905.82359028062</v>
       </c>
       <c r="U14" t="n">
-        <v>2873.571463155802</v>
+        <v>2745.011542002407</v>
       </c>
       <c r="V14" t="n">
-        <v>2873.571463155802</v>
+        <v>2497.845413993114</v>
       </c>
       <c r="W14" t="n">
-        <v>2597.513109411278</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X14" t="n">
-        <v>2303.001185631523</v>
+        <v>1927.275136468835</v>
       </c>
       <c r="Y14" t="n">
-        <v>2001.451157839313</v>
+        <v>1625.725108676625</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551007</v>
+        <v>493.0843669551</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082777</v>
       </c>
       <c r="D16" t="n">
-        <v>357.1274984979812</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E16" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445329</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G16" t="n">
-        <v>160.8107415311668</v>
+        <v>160.810741531167</v>
       </c>
       <c r="H16" t="n">
         <v>100.2728717798493</v>
@@ -5434,25 +5434,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>125.3967468362514</v>
+        <v>125.3967468362512</v>
       </c>
       <c r="K16" t="n">
-        <v>300.2831496757665</v>
+        <v>300.283149675766</v>
       </c>
       <c r="L16" t="n">
-        <v>557.4621512791396</v>
+        <v>557.4621512791391</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469772</v>
+        <v>836.8050913469765</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.04608710776</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O16" t="n">
-        <v>1368.802215879041</v>
+        <v>1368.80221587904</v>
       </c>
       <c r="P16" t="n">
-        <v>1581.729743385193</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q16" t="n">
         <v>1678.203301484817</v>
@@ -5461,25 +5461,25 @@
         <v>1649.242993404582</v>
       </c>
       <c r="S16" t="n">
-        <v>1541.36759087432</v>
+        <v>1541.367590874319</v>
       </c>
       <c r="T16" t="n">
-        <v>1400.589220329743</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966845</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852105</v>
+        <v>850.6627251852096</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553819</v>
+        <v>711.5230842553811</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592137</v>
+        <v>583.3517043592128</v>
       </c>
     </row>
     <row r="17">
@@ -5501,22 +5501,22 @@
         <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099317</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803434</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924243</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5534,13 +5534,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5601,16 +5601,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P18" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5665,25 +5665,25 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>278.5901810446697</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>442.7178209184696</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>629.0093992567336</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879427</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
         <v>974.9038003296507</v>
@@ -5726,43 +5726,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K20" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L20" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M20" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N20" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
         <v>2572.923332933306</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829235</v>
@@ -5783,16 +5783,16 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5835,10 +5835,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
@@ -5911,25 +5911,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.779966106229</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.20216247628</v>
+        <v>1092.622519868097</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5938,22 +5938,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,7 +6011,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
         <v>3071.119566829236</v>
@@ -6023,7 +6023,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6032,7 +6032,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L24" t="n">
-        <v>978.5393418843826</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M24" t="n">
-        <v>978.5393418843826</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1345.668748541356</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1862.189031132337</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>149.5338114222411</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U25" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="26">
@@ -6209,13 +6209,13 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563784</v>
+        <v>311.0659935859517</v>
       </c>
       <c r="K26" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508978</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6251,22 +6251,22 @@
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1469.558742615807</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N27" t="n">
-        <v>1469.558742615807</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P27" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746015</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904108</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6421,13 +6421,13 @@
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026479</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218606</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142183</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2609.386271932278</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>3079.395388107029</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379501</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848362</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>872.7308420875812</v>
+        <v>872.7308420875813</v>
       </c>
       <c r="C30" t="n">
-        <v>722.0766116476734</v>
+        <v>722.0766116476735</v>
       </c>
       <c r="D30" t="n">
-        <v>591.9876442691537</v>
+        <v>591.9876442691539</v>
       </c>
       <c r="E30" t="n">
         <v>455.5411533800415</v>
@@ -6531,46 +6531,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G30" t="n">
-        <v>211.0495293350377</v>
+        <v>211.0495293350378</v>
       </c>
       <c r="H30" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>393.1040050097768</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>876.6700909080901</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.702594472545</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368296</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368296</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2157.335302368296</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R30" t="n">
-        <v>2367.78335082125</v>
+        <v>2367.783350821251</v>
       </c>
       <c r="S30" t="n">
-        <v>2232.852673721119</v>
+        <v>2232.85267372112</v>
       </c>
       <c r="T30" t="n">
-        <v>2055.868861920027</v>
+        <v>2055.868861920028</v>
       </c>
       <c r="U30" t="n">
         <v>1845.80571859867</v>
@@ -6579,13 +6579,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W30" t="n">
-        <v>1393.148471103023</v>
+        <v>1393.148471103024</v>
       </c>
       <c r="X30" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y30" t="n">
-        <v>1024.527176528542</v>
+        <v>1024.527176528543</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985355</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.755098887807</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879683</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746022</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232844</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796863</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904117</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728251</v>
+        <v>1689.449032728252</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286447</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988167</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026478</v>
+        <v>594.5974356026484</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1767.36701308464</v>
+        <v>1719.814764781095</v>
       </c>
       <c r="C32" t="n">
-        <v>1484.884815985474</v>
+        <v>1443.841115634091</v>
       </c>
       <c r="D32" t="n">
-        <v>1210.136991600045</v>
+        <v>1175.601839200823</v>
       </c>
       <c r="E32" t="n">
-        <v>918.2467711144936</v>
+        <v>890.2201666674325</v>
       </c>
       <c r="F32" t="n">
-        <v>612.0456370423753</v>
+        <v>590.5275805474753</v>
       </c>
       <c r="G32" t="n">
-        <v>309.5761859282825</v>
+        <v>294.5666773855435</v>
       </c>
       <c r="H32" t="n">
-        <v>96.18643989267684</v>
+        <v>87.68547930209908</v>
       </c>
       <c r="I32" t="n">
-        <v>68.54262738304553</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J32" t="n">
-        <v>213.1924002918736</v>
+        <v>211.199987653457</v>
       </c>
       <c r="K32" t="n">
-        <v>572.1747563193355</v>
+        <v>570.1823436809188</v>
       </c>
       <c r="L32" t="n">
-        <v>1065.495048037864</v>
+        <v>1063.502635399448</v>
       </c>
       <c r="M32" t="n">
-        <v>1611.495948082445</v>
+        <v>1609.503535444028</v>
       </c>
       <c r="N32" t="n">
-        <v>2139.307231719907</v>
+        <v>2137.31481908149</v>
       </c>
       <c r="O32" t="n">
-        <v>2605.863648690209</v>
+        <v>2692.223955462117</v>
       </c>
       <c r="P32" t="n">
-        <v>3062.541648462116</v>
+        <v>3040.411447593639</v>
       </c>
       <c r="Q32" t="n">
-        <v>3355.87771624345</v>
+        <v>3327.510737231443</v>
       </c>
       <c r="R32" t="n">
-        <v>3427.131369152276</v>
+        <v>3327.510737231443</v>
       </c>
       <c r="S32" t="n">
-        <v>3371.31111849123</v>
+        <v>3278.199034522559</v>
       </c>
       <c r="T32" t="n">
-        <v>3258.503820448551</v>
+        <v>3171.90028443204</v>
       </c>
       <c r="U32" t="n">
-        <v>3113.444395281053</v>
+        <v>3033.349407216704</v>
       </c>
       <c r="V32" t="n">
-        <v>2882.030890382476</v>
+        <v>2808.444450270287</v>
       </c>
       <c r="W32" t="n">
-        <v>2621.725159748667</v>
+        <v>2554.647267588639</v>
       </c>
       <c r="X32" t="n">
-        <v>2342.965859079628</v>
+        <v>2282.396514871761</v>
       </c>
       <c r="Y32" t="n">
-        <v>2057.168454398133</v>
+        <v>2003.107658142427</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>867.9086105230765</v>
+        <v>865.9161978846598</v>
       </c>
       <c r="C33" t="n">
-        <v>717.2543800831687</v>
+        <v>715.261967444752</v>
       </c>
       <c r="D33" t="n">
-        <v>587.165412704649</v>
+        <v>585.1730000662324</v>
       </c>
       <c r="E33" t="n">
-        <v>450.7189218155368</v>
+        <v>448.7265091771201</v>
       </c>
       <c r="F33" t="n">
-        <v>326.2871156986686</v>
+        <v>324.2947030602519</v>
       </c>
       <c r="G33" t="n">
-        <v>206.227297770533</v>
+        <v>204.2348851321163</v>
       </c>
       <c r="H33" t="n">
-        <v>117.9298813711339</v>
+        <v>115.9374687327173</v>
       </c>
       <c r="I33" t="n">
-        <v>68.54262738304553</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J33" t="n">
-        <v>68.54262738304553</v>
+        <v>179.6651969643563</v>
       </c>
       <c r="K33" t="n">
-        <v>388.2817734452719</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="L33" t="n">
-        <v>871.8478593435852</v>
+        <v>499.4043430265827</v>
       </c>
       <c r="M33" t="n">
-        <v>1499.619508970266</v>
+        <v>1127.175992653264</v>
       </c>
       <c r="N33" t="n">
-        <v>1499.619508970266</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="O33" t="n">
-        <v>2016.139791561247</v>
+        <v>1782.953963863823</v>
       </c>
       <c r="P33" t="n">
-        <v>2386.878162358681</v>
+        <v>2188.57533258022</v>
       </c>
       <c r="Q33" t="n">
-        <v>2386.878162358681</v>
+        <v>2384.885749720265</v>
       </c>
       <c r="R33" t="n">
-        <v>2362.961119256746</v>
+        <v>2360.968706618329</v>
       </c>
       <c r="S33" t="n">
-        <v>2228.030442156615</v>
+        <v>2226.038029518198</v>
       </c>
       <c r="T33" t="n">
-        <v>2051.046630355523</v>
+        <v>2049.054217717106</v>
       </c>
       <c r="U33" t="n">
-        <v>1840.983487034165</v>
+        <v>1838.991074395748</v>
       </c>
       <c r="V33" t="n">
-        <v>1618.443485405232</v>
+        <v>1616.451072766815</v>
       </c>
       <c r="W33" t="n">
-        <v>1388.326239538519</v>
+        <v>1386.333826900102</v>
       </c>
       <c r="X33" t="n">
-        <v>1199.019161888531</v>
+        <v>1197.026749250114</v>
       </c>
       <c r="Y33" t="n">
-        <v>1019.704944964038</v>
+        <v>1017.712532325621</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>389.2395048590217</v>
+        <v>341.6872565554773</v>
       </c>
       <c r="C34" t="n">
-        <v>329.7276913229148</v>
+        <v>288.6839909715315</v>
       </c>
       <c r="D34" t="n">
-        <v>284.7878826233334</v>
+        <v>250.2527302241112</v>
       </c>
       <c r="E34" t="n">
-        <v>239.9223748804397</v>
+        <v>211.8957704333787</v>
       </c>
       <c r="F34" t="n">
-        <v>193.2897444913165</v>
+        <v>171.7716879964166</v>
       </c>
       <c r="G34" t="n">
-        <v>135.7289949886659</v>
+        <v>120.7194864459271</v>
       </c>
       <c r="H34" t="n">
-        <v>90.94374834806378</v>
+        <v>82.44278775748602</v>
       </c>
       <c r="I34" t="n">
-        <v>68.54262738304553</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="J34" t="n">
-        <v>147.2593924259936</v>
+        <v>66.55021474462886</v>
       </c>
       <c r="K34" t="n">
-        <v>337.5849411763211</v>
+        <v>148.3852558545707</v>
       </c>
       <c r="L34" t="n">
-        <v>610.2030886905063</v>
+        <v>312.5128957283705</v>
       </c>
       <c r="M34" t="n">
-        <v>904.9851746691559</v>
+        <v>613.6740095549333</v>
       </c>
       <c r="N34" t="n">
-        <v>1146.581702203961</v>
+        <v>810.7134513543699</v>
       </c>
       <c r="O34" t="n">
-        <v>1309.286469245669</v>
+        <v>1088.287753884377</v>
       </c>
       <c r="P34" t="n">
-        <v>1429.162635022248</v>
+        <v>1323.033455149254</v>
       </c>
       <c r="Q34" t="n">
-        <v>1432.584831392299</v>
+        <v>1326.455651519305</v>
       </c>
       <c r="R34" t="n">
-        <v>1419.37714642278</v>
+        <v>1319.756514501947</v>
       </c>
       <c r="S34" t="n">
-        <v>1327.254367003233</v>
+        <v>1234.142283034561</v>
       </c>
       <c r="T34" t="n">
-        <v>1202.228619569371</v>
+        <v>1115.62508355286</v>
       </c>
       <c r="U34" t="n">
-        <v>1027.483132209175</v>
+        <v>947.3881441448257</v>
       </c>
       <c r="V34" t="n">
-        <v>872.1970914279036</v>
+        <v>798.6106513157148</v>
       </c>
       <c r="W34" t="n">
-        <v>699.559993756985</v>
+        <v>632.4821015969574</v>
       </c>
       <c r="X34" t="n">
-        <v>576.172975937872</v>
+        <v>515.6036317300054</v>
       </c>
       <c r="Y34" t="n">
-        <v>463.7542191524192</v>
+        <v>409.6934228967137</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2009.716291882317</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7096,19 +7096,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960409</v>
       </c>
       <c r="M37" t="n">
-        <v>629.0093992567336</v>
+        <v>499.953029634305</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
         <v>1094.779966106229</v>
@@ -7166,7 +7166,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,7 +7199,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7257,19 +7257,19 @@
         <v>381.858273766342</v>
       </c>
       <c r="L39" t="n">
-        <v>596.176270190801</v>
+        <v>381.858273766342</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7339,19 +7339,19 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1586.170216899326</v>
+        <v>1340.175609875975</v>
       </c>
       <c r="C41" t="n">
-        <v>1290.43596739239</v>
+        <v>1044.441360369039</v>
       </c>
       <c r="D41" t="n">
-        <v>1002.43609059919</v>
+        <v>1043.331955516593</v>
       </c>
       <c r="E41" t="n">
-        <v>697.2938177058683</v>
+        <v>738.1896826232703</v>
       </c>
       <c r="F41" t="n">
-        <v>377.8406312259792</v>
+        <v>418.7364961433811</v>
       </c>
       <c r="G41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="H41" t="n">
-        <v>62.11912770411553</v>
+        <v>103.0149926215175</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,25 +7436,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>3036.88408213696</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U41" t="n">
-        <v>2947.644907630508</v>
+        <v>2752.513254111243</v>
       </c>
       <c r="V41" t="n">
-        <v>2702.979350324159</v>
+        <v>2507.847696804894</v>
       </c>
       <c r="W41" t="n">
-        <v>2429.42156728258</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X41" t="n">
-        <v>2188.273167709855</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y41" t="n">
-        <v>1889.22371062059</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>494.9732559860694</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>978.5393418843826</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>475.5803720344866</v>
+        <v>475.5803720344861</v>
       </c>
       <c r="C43" t="n">
-        <v>402.816506090609</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D43" t="n">
-        <v>344.6246449832569</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E43" t="n">
-        <v>286.5070848325926</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F43" t="n">
-        <v>226.6224020356987</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G43" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77230107690448</v>
+        <v>97.77230107690441</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>127.8475561822075</v>
+        <v>68.23195016743929</v>
       </c>
       <c r="K43" t="n">
-        <v>305.1847683676789</v>
+        <v>245.5691623529107</v>
       </c>
       <c r="L43" t="n">
-        <v>564.8145793170082</v>
+        <v>505.1989733022401</v>
       </c>
       <c r="M43" t="n">
-        <v>846.6083287308018</v>
+        <v>786.9927227160337</v>
       </c>
       <c r="N43" t="n">
-        <v>1125.30013383754</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O43" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P43" t="n">
-        <v>1598.885408806886</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q43" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R43" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S43" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T43" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U43" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V43" t="n">
         <v>1011.546168234451</v>
       </c>
       <c r="W43" t="n">
-        <v>825.657018155762</v>
+        <v>825.6570181557613</v>
       </c>
       <c r="X43" t="n">
-        <v>689.0179479288782</v>
+        <v>689.0179479288777</v>
       </c>
       <c r="Y43" t="n">
-        <v>563.3471387356548</v>
+        <v>563.3471387356542</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1624.546437901693</v>
+        <v>1340.175609875974</v>
       </c>
       <c r="C44" t="n">
-        <v>1328.812188394757</v>
+        <v>1044.441360369038</v>
       </c>
       <c r="D44" t="n">
-        <v>1040.812311601557</v>
+        <v>1002.43609059919</v>
       </c>
       <c r="E44" t="n">
-        <v>735.6700387082349</v>
+        <v>697.2938177058682</v>
       </c>
       <c r="F44" t="n">
-        <v>416.2168522283458</v>
+        <v>377.8406312259791</v>
       </c>
       <c r="G44" t="n">
-        <v>100.4953487064816</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>100.4953487064816</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
         <v>1059.071548358934</v>
@@ -7676,22 +7676,22 @@
         <v>3036.88408213696</v>
       </c>
       <c r="T44" t="n">
-        <v>3036.88408213696</v>
+        <v>2910.82473168651</v>
       </c>
       <c r="U44" t="n">
-        <v>3036.88408213696</v>
+        <v>2752.513254111242</v>
       </c>
       <c r="V44" t="n">
-        <v>2792.218524830612</v>
+        <v>2507.847696804893</v>
       </c>
       <c r="W44" t="n">
-        <v>2518.660741789033</v>
+        <v>2234.289913763314</v>
       </c>
       <c r="X44" t="n">
-        <v>2226.649388712223</v>
+        <v>1942.278560686504</v>
       </c>
       <c r="Y44" t="n">
-        <v>1927.599931622957</v>
+        <v>1643.229103597238</v>
       </c>
     </row>
     <row r="45">
@@ -7728,19 +7728,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>978.5393418843826</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>803.0057595505241</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.783730761083</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1975.304013352064</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>475.5803720344866</v>
+        <v>475.5803720344861</v>
       </c>
       <c r="C46" t="n">
-        <v>402.816506090609</v>
+        <v>402.8165060906085</v>
       </c>
       <c r="D46" t="n">
-        <v>344.6246449832569</v>
+        <v>344.6246449832565</v>
       </c>
       <c r="E46" t="n">
-        <v>286.5070848325926</v>
+        <v>286.5070848325922</v>
       </c>
       <c r="F46" t="n">
-        <v>226.6224020356987</v>
+        <v>226.6224020356984</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8096001252773</v>
+        <v>155.8096001252772</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77230107690448</v>
+        <v>97.77230107690441</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>127.8475561822075</v>
+        <v>127.8475561822076</v>
       </c>
       <c r="K46" t="n">
-        <v>305.1847683676789</v>
+        <v>305.1847683676791</v>
       </c>
       <c r="L46" t="n">
-        <v>564.8145793170082</v>
+        <v>564.8145793170083</v>
       </c>
       <c r="M46" t="n">
-        <v>846.6083287308018</v>
+        <v>846.608328730802</v>
       </c>
       <c r="N46" t="n">
-        <v>1125.30013383754</v>
+        <v>1065.684527822772</v>
       </c>
       <c r="O46" t="n">
-        <v>1383.507071954778</v>
+        <v>1323.89146594001</v>
       </c>
       <c r="P46" t="n">
-        <v>1598.885408806886</v>
+        <v>1539.269802792118</v>
       </c>
       <c r="Q46" t="n">
-        <v>1638.1941702377</v>
+        <v>1638.194170237699</v>
       </c>
       <c r="R46" t="n">
-        <v>1611.73443286041</v>
+        <v>1611.734432860409</v>
       </c>
       <c r="S46" t="n">
-        <v>1506.359601033093</v>
+        <v>1506.359601033092</v>
       </c>
       <c r="T46" t="n">
-        <v>1368.08180119146</v>
+        <v>1368.081801191459</v>
       </c>
       <c r="U46" t="n">
-        <v>1180.084261423494</v>
+        <v>1180.084261423493</v>
       </c>
       <c r="V46" t="n">
         <v>1011.546168234451</v>
       </c>
       <c r="W46" t="n">
-        <v>825.657018155762</v>
+        <v>825.6570181557613</v>
       </c>
       <c r="X46" t="n">
-        <v>689.0179479288782</v>
+        <v>689.0179479288777</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3471387356548</v>
+        <v>563.3471387356542</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>200.688734882096</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>427.175469957999</v>
+        <v>655.9541253305044</v>
       </c>
       <c r="N2" t="n">
-        <v>680.2527230507699</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8058,7 +8058,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8067,13 +8067,13 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>504.3020118327178</v>
+        <v>591.6011865869439</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>341.761960553241</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8216,19 +8216,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>604.3451443045089</v>
       </c>
       <c r="M5" t="n">
-        <v>680.859283310713</v>
+        <v>655.9541253305044</v>
       </c>
       <c r="N5" t="n">
-        <v>592.0486659291188</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
         <v>502.0059847475129</v>
@@ -8292,28 +8292,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>173.1723846700722</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>616.5063445671524</v>
+        <v>591.6011865869439</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>255.5255418589624</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>393.9156246749224</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,25 +8529,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>183.2986537257091</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>577.6575640662504</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,28 +8766,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M12" t="n">
-        <v>436.3426582800314</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O12" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8942,7 +8942,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
         <v>331.2113854294513</v>
@@ -9012,10 +9012,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>324.3235533562099</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>108.8653421701425</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>454.5321323046928</v>
+        <v>438.5811111539143</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q18" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>263.7907196684361</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
         <v>505.666843611017</v>
@@ -9483,13 +9483,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M21" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>333.2595653118431</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>373.8515870339854</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,19 +9960,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>691.2645480167031</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10191,7 +10191,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
@@ -10200,13 +10200,13 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>658.1108392979577</v>
+        <v>744.8605591506561</v>
       </c>
       <c r="O30" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>327.7205688679246</v>
@@ -10425,28 +10425,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P33" t="n">
-        <v>461.5665676450056</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>289.2815038024237</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,19 +10671,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>461.5665676450056</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10905,13 +10905,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>306.543171528089</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>517.3131487114046</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,19 +11136,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11376,22 +11376,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
-        <v>340.2745745069883</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>259.5940292362812</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23261,16 +23261,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>287.5954430211825</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>230.4905691364593</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>159.2039277954309</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>98.73105180240505</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>2.664535259100376e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23498,10 +23498,10 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>14.11306200385697</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>130.5991626838138</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -25631,7 +25631,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>284.0215672213453</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25643,10 +25643,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>224.3753804589424</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I41" t="n">
-        <v>40.486906268228</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25676,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>68.38158003812812</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25691,7 +25691,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>50.35432396904413</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>243.5346609531174</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,10 +25880,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>224.3753804589424</v>
+        <v>224.3753804589423</v>
       </c>
       <c r="I44" t="n">
-        <v>2.494447475885752</v>
+        <v>40.48690626822793</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7987569459457</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.7283627995155</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>688665.0571819717</v>
+        <v>688063.5095682114</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>688665.0571819717</v>
+        <v>688063.5095682114</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>652870.2399122949</v>
+        <v>652870.2399122948</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>652870.2399122949</v>
+        <v>652870.2399122948</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>655604.3776720337</v>
+        <v>655604.3776720336</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>655604.3776720335</v>
+        <v>655604.3776720336</v>
       </c>
     </row>
   </sheetData>
@@ -26314,34 +26314,34 @@
         <v>595096.1877080774</v>
       </c>
       <c r="C2" t="n">
-        <v>595096.1877080774</v>
+        <v>595096.1877080776</v>
       </c>
       <c r="D2" t="n">
         <v>595096.1877080776</v>
       </c>
       <c r="E2" t="n">
+        <v>559271.2048546864</v>
+      </c>
+      <c r="F2" t="n">
         <v>559271.2048546863</v>
       </c>
-      <c r="F2" t="n">
-        <v>559271.2048546866</v>
-      </c>
       <c r="G2" t="n">
-        <v>595096.1877080776</v>
+        <v>595096.1877080777</v>
       </c>
       <c r="H2" t="n">
-        <v>595096.1877080776</v>
+        <v>595096.1877080777</v>
       </c>
       <c r="I2" t="n">
-        <v>595096.1877080776</v>
+        <v>595096.187708078</v>
       </c>
       <c r="J2" t="n">
-        <v>595096.1877080769</v>
+        <v>595096.187708077</v>
       </c>
       <c r="K2" t="n">
-        <v>595096.1877080771</v>
+        <v>595096.187708077</v>
       </c>
       <c r="L2" t="n">
-        <v>595096.1877080777</v>
+        <v>595096.1877080773</v>
       </c>
       <c r="M2" t="n">
         <v>595096.1877080777</v>
@@ -26350,10 +26350,10 @@
         <v>595096.1877080777</v>
       </c>
       <c r="O2" t="n">
-        <v>561709.7601539132</v>
+        <v>561709.7601539131</v>
       </c>
       <c r="P2" t="n">
-        <v>561709.7601539129</v>
+        <v>561709.7601539131</v>
       </c>
     </row>
     <row r="3">
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>177995.2971343509</v>
+        <v>169649.0058765495</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>18724.12238602636</v>
+        <v>26460.41160941853</v>
       </c>
       <c r="E3" t="n">
         <v>130452.9311377121</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-11</v>
       </c>
       <c r="G3" t="n">
         <v>29094.95587301434</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>221845.8749469667</v>
+        <v>215329.589792393</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>41571.03337670103</v>
+        <v>46725.80335481261</v>
       </c>
       <c r="M3" t="n">
-        <v>42731.27693436843</v>
+        <v>43782.9719455567</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>18983.55983015679</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192027.5467249332</v>
+        <v>198138.1733873965</v>
       </c>
       <c r="C4" t="n">
-        <v>192027.5467249332</v>
+        <v>198138.1733873966</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
@@ -26436,16 +26436,16 @@
         <v>147651.9979996332</v>
       </c>
       <c r="I4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="K4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="L4" t="n">
-        <v>148079.6358093552</v>
+        <v>147946.2412003005</v>
       </c>
       <c r="M4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295285</v>
       </c>
       <c r="C5" t="n">
-        <v>65920.56128814953</v>
+        <v>64406.32768295285</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,22 +26482,22 @@
         <v>55112.2895089091</v>
       </c>
       <c r="G5" t="n">
+        <v>58169.76931551967</v>
+      </c>
+      <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
-      <c r="H5" t="n">
-        <v>58169.76931551967</v>
-      </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391951</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391952</v>
       </c>
       <c r="L5" t="n">
-        <v>61305.2134644677</v>
+        <v>60332.67530588336</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
       <c r="P5" t="n">
-        <v>55320.40778255071</v>
+        <v>55320.40778255072</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>159152.7825606437</v>
+        <v>162902.6807611785</v>
       </c>
       <c r="C6" t="n">
-        <v>337148.0796949946</v>
+        <v>332551.6866377282</v>
       </c>
       <c r="D6" t="n">
-        <v>329548.5964807194</v>
+        <v>321812.3072573271</v>
       </c>
       <c r="E6" t="n">
-        <v>250658.3068519138</v>
+        <v>250549.7462978127</v>
       </c>
       <c r="F6" t="n">
-        <v>381111.2379896263</v>
+        <v>381002.6774355248</v>
       </c>
       <c r="G6" t="n">
-        <v>360179.4645199105</v>
+        <v>360179.4645199106</v>
       </c>
       <c r="H6" t="n">
-        <v>389274.4203929247</v>
+        <v>389274.4203929249</v>
       </c>
       <c r="I6" t="n">
-        <v>389274.4203929247</v>
+        <v>389274.420392925</v>
       </c>
       <c r="J6" t="n">
-        <v>161188.7770431744</v>
+        <v>167705.0621977481</v>
       </c>
       <c r="K6" t="n">
-        <v>383034.6519901413</v>
+        <v>383034.6519901411</v>
       </c>
       <c r="L6" t="n">
-        <v>344140.3050575537</v>
+        <v>340091.4678470809</v>
       </c>
       <c r="M6" t="n">
-        <v>346543.1434585564</v>
+        <v>345491.4484473682</v>
       </c>
       <c r="N6" t="n">
         <v>389274.4203929249</v>
       </c>
       <c r="O6" t="n">
-        <v>362683.4992860631</v>
+        <v>362582.3282934746</v>
       </c>
       <c r="P6" t="n">
-        <v>381667.0591162196</v>
+        <v>381565.8881236313</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
         <v>93.99127447431646</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,10 +26722,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P2" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327772</v>
       </c>
       <c r="C4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327772</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,22 +26802,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
-      <c r="H4" t="n">
-        <v>776.4890963014442</v>
-      </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443785</v>
       </c>
       <c r="L4" t="n">
-        <v>856.782842288069</v>
+        <v>831.8776843078607</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26914,34 +26914,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="G2" t="n">
         <v>36.36869484126792</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>51.96379172087629</v>
+        <v>58.40725419351577</v>
       </c>
       <c r="M2" t="n">
-        <v>20.77359796165956</v>
+        <v>14.33013548902011</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>23.72944978769598</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327772</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>60.27789455630932</v>
+        <v>85.18305253651783</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>671.7058722559198</v>
+        <v>646.8007142757114</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>104.7832240455241</v>
+        <v>129.6883820257324</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-14</v>
       </c>
       <c r="L2" t="n">
         <v>36.36869484126792</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304853</v>
+        <v>57.6225796330485</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327772</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>60.27789455630932</v>
+        <v>85.18305253651783</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27385,19 +27385,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>160.9220412857415</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>271.4651216286596</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>97.61862951051191</v>
+        <v>43.99219550355316</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>128.1091850427962</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>36.40928042339651</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27625,16 +27625,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>236.995132671386</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>12.66920883703523</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>15.3478746402664</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.66721019407829</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,7 +27755,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27825,19 +27825,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>19.34431822393034</v>
       </c>
       <c r="U7" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>172.3925060467237</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>43.0921593262744</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>143.4015522765083</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28059,25 +28059,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>220.1322412032064</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>144.1400749395018</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y11" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="14">
@@ -28743,11 +28743,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K19" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K19" t="n">
-        <v>35.71049010668817</v>
-      </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
@@ -28758,7 +28758,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28983,28 +28983,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>5.636002634529063</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
       <c r="R22" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082772</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29217,10 +29217,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>35.7104901066881</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29229,7 +29229,7 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>130.3599693155844</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="O26" t="n">
+        <v>93.99127447431647</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>30.27223765901226</v>
       </c>
-      <c r="N26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="O26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="P26" t="n">
-        <v>93.99127447431646</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>93.99127447431646</v>
-      </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29548,13 +29548,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>30.27223765901266</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901363</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="C32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="D32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="E32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="F32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="G32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="H32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="I32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29785,37 +29785,37 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>26.78466270502383</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="P32" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>109.5863713539248</v>
+        <v>103.2865954513686</v>
       </c>
       <c r="R32" t="n">
-        <v>109.5863713539248</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="T32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="U32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="V32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="W32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="X32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Y32" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="C34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="D34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="E34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="F34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="G34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="H34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="I34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5863713539248</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>109.5863713539248</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="N34" t="n">
-        <v>58.9968621248448</v>
+        <v>13.98970481639137</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="S34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="T34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="U34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="V34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="W34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="X34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
       <c r="Y34" t="n">
-        <v>109.5863713539248</v>
+        <v>116.0298338265643</v>
       </c>
     </row>
     <row r="35">
@@ -30168,22 +30168,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>5.63600263452912</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30411,13 +30411,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>130.3599693155844</v>
+        <v>5.63600263452858</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y41" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J43" t="n">
-        <v>96.46683947023182</v>
+        <v>36.24905561693055</v>
       </c>
       <c r="K43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="L43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="M43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="N43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="O43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Q43" t="n">
-        <v>36.24905561693214</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="R43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="S43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y43" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y44" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="C46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="D46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="E46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="F46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="G46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="H46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="I46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="J46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="K46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="L46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="M46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="N46" t="n">
-        <v>96.46683947023182</v>
+        <v>36.24905561693058</v>
       </c>
       <c r="O46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="P46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Q46" t="n">
-        <v>36.24905561693214</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="R46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="S46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="T46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="U46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="V46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="W46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="X46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
       <c r="Y46" t="n">
-        <v>96.46683947023182</v>
+        <v>96.46683947023189</v>
       </c>
     </row>
   </sheetData>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>57.63033170285863</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>277.4504183602718</v>
+        <v>506.2290737327772</v>
       </c>
       <c r="N2" t="n">
-        <v>531.1342317129858</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34778,7 +34778,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34787,13 +34787,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>418.9298989785511</v>
+        <v>506.2290737327772</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>249.0744016643521</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34936,19 +34936,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>451.0969745740172</v>
       </c>
       <c r="M5" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327772</v>
       </c>
       <c r="N5" t="n">
-        <v>442.9301745913347</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>351.7045375065877</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>80.78526262076032</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>531.1342317129858</v>
+        <v>506.2290737327772</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>162.8379829700735</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>244.7971333371383</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>93.70171839237574</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>484.9700051773615</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>343.9555362307195</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K13" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L13" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M13" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N13" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O13" t="n">
         <v>258.3395240113953</v>
@@ -35586,7 +35586,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q13" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
         <v>186.7126870110591</v>
@@ -35732,10 +35732,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>231.936431306898</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>23.49322931597588</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>362.1450102553808</v>
+        <v>346.1939891046024</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>118.3721477934981</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36054,7 +36054,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
         <v>362.6084404317796</v>
@@ -36203,13 +36203,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724872</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>5.636002634528405</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>247.8874524576764</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>286.7682222146707</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>5.63600263452903</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36525,7 +36525,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>190.6760370094874</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,16 +36592,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>498.303324968211</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101038</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
@@ -36610,13 +36610,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>445.6958119809042</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>216.9849246700714</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,19 +36680,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>598.8774259673912</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36844,13 +36844,13 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>474.756683004799</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700728</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
@@ -36920,13 +36920,13 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>572.7387264437911</v>
+        <v>659.4884462964894</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>236.7324157120106</v>
@@ -37081,16 +37081,16 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>471.2691080508101</v>
+        <v>560.5142791723506</v>
       </c>
       <c r="P32" t="n">
-        <v>461.2909088605126</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>296.2990583649839</v>
+        <v>289.9992824624277</v>
       </c>
       <c r="R32" t="n">
-        <v>71.97338677659154</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>374.483202825691</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>198.2933506465097</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.51188388176575</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>192.2480290407348</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>275.3718661759448</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>297.7596828067168</v>
+        <v>304.2031452793562</v>
       </c>
       <c r="N34" t="n">
-        <v>244.0368964998036</v>
+        <v>199.0297391913502</v>
       </c>
       <c r="O34" t="n">
-        <v>164.3482495370789</v>
+        <v>280.3780833636432</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>237.1168699645225</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,19 +37391,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>374.483202825691</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.4214974565491</v>
+        <v>171.421497456549</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,7 +37479,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37625,13 +37625,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>216.4828246711707</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>424.9260266620927</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,13 +37707,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526632</v>
+        <v>169.9842521716074</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>66.39235199807274</v>
+        <v>6.174568144771482</v>
       </c>
       <c r="K43" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L43" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M43" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N43" t="n">
-        <v>281.5068738451906</v>
+        <v>281.5068738451907</v>
       </c>
       <c r="O43" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P43" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.70581962708462</v>
+        <v>99.92360348038437</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
-        <v>498.303324968211</v>
+        <v>498.3033249682109</v>
       </c>
       <c r="M44" t="n">
         <v>551.5160606510915</v>
@@ -38096,22 +38096,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>247.8874524576764</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>172.5106644169666</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>66.39235199807274</v>
+        <v>66.39235199807283</v>
       </c>
       <c r="K46" t="n">
-        <v>179.1284971570418</v>
+        <v>179.1284971570419</v>
       </c>
       <c r="L46" t="n">
-        <v>262.2523342922518</v>
+        <v>262.2523342922519</v>
       </c>
       <c r="M46" t="n">
         <v>284.6401509230238</v>
       </c>
       <c r="N46" t="n">
-        <v>281.5068738451906</v>
+        <v>221.2890899918894</v>
       </c>
       <c r="O46" t="n">
         <v>260.8150890073107</v>
       </c>
       <c r="P46" t="n">
-        <v>217.55387560819</v>
+        <v>217.5538756081901</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.70581962708462</v>
+        <v>99.92360348038437</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
